--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 20,77</t>
+          <t>7,99; 21,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 34,59</t>
+          <t>18,84; 35,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 27,26</t>
+          <t>12,75; 28,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,44</t>
+          <t>3,42; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 33,5</t>
+          <t>18,27; 33,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,3; 53,28</t>
+          <t>33,36; 53,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 41,79</t>
+          <t>25,04; 42,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 18,2</t>
+          <t>8,82; 17,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 24,45</t>
+          <t>14,94; 24,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,71; 41,98</t>
+          <t>28,64; 41,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,53; 32,15</t>
+          <t>20,59; 32,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,18</t>
+          <t>7,25; 14,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,75</t>
+          <t>18,42; 24,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 33,39</t>
+          <t>25,55; 33,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,36</t>
+          <t>23,52; 31,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,28</t>
+          <t>12,18; 18,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 37,88</t>
+          <t>29,71; 37,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 47,13</t>
+          <t>38,58; 47,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,14</t>
+          <t>26,06; 33,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,58</t>
+          <t>15,13; 21,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 30,42</t>
+          <t>25,13; 30,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 39,03</t>
+          <t>33,61; 39,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 31,19</t>
+          <t>26,06; 31,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,15</t>
+          <t>14,35; 18,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 24,9</t>
+          <t>19,19; 24,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,43; 33,57</t>
+          <t>27,53; 33,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,28; 27,84</t>
+          <t>22,19; 27,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,99</t>
+          <t>12,39; 18,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 35,37</t>
+          <t>29,33; 35,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,35; 47,88</t>
+          <t>41,55; 48,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,94; 40,38</t>
+          <t>33,87; 39,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,03</t>
+          <t>21,51; 26,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,11; 29,25</t>
+          <t>25,24; 29,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,43; 40,02</t>
+          <t>35,28; 39,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,86; 32,93</t>
+          <t>28,79; 32,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 21,46</t>
+          <t>17,81; 21,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,65</t>
+          <t>16,73; 23,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,98</t>
+          <t>26,05; 33,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 27,37</t>
+          <t>20,69; 27,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,86</t>
+          <t>10,07; 16,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 32,62</t>
+          <t>25,74; 32,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,88; 49,25</t>
+          <t>41,67; 48,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 38,75</t>
+          <t>31,68; 38,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 52,59</t>
+          <t>16,35; 51,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 26,88</t>
+          <t>22,36; 27,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,21; 40,04</t>
+          <t>35,01; 40,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 31,83</t>
+          <t>27,32; 32,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 38,89</t>
+          <t>14,27; 38,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,58; 21,62</t>
+          <t>16,33; 21,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,33; 31,01</t>
+          <t>25,11; 31,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 24,13</t>
+          <t>18,65; 23,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,04</t>
+          <t>9,76; 14,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,21; 30,63</t>
+          <t>25,43; 30,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,08; 42,21</t>
+          <t>36,13; 42,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,26; 33,36</t>
+          <t>27,01; 33,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 16,43</t>
+          <t>12,04; 15,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,85; 25,6</t>
+          <t>21,66; 25,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,7; 35,91</t>
+          <t>31,58; 35,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 28,02</t>
+          <t>24,01; 28,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 14,54</t>
+          <t>11,78; 14,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,77; 21,46</t>
+          <t>18,87; 21,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,69; 31,09</t>
+          <t>27,48; 30,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,33</t>
+          <t>22,36; 25,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,84</t>
+          <t>12,06; 14,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,72; 31,98</t>
+          <t>28,81; 32,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,4; 44,71</t>
+          <t>41,18; 44,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,61; 34,84</t>
+          <t>31,58; 34,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,66; 28,17</t>
+          <t>17,64; 29,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,26; 26,53</t>
+          <t>24,38; 26,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,11; 37,38</t>
+          <t>35,01; 37,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,49; 29,83</t>
+          <t>27,65; 29,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,46</t>
+          <t>15,52; 22,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 21,46</t>
+          <t>8,37; 21,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 35,63</t>
+          <t>19,28; 35,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 28,01</t>
+          <t>12,42; 26,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,27; 33,82</t>
+          <t>17,93; 33,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,36; 53,67</t>
+          <t>32,61; 53,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,04; 42,56</t>
+          <t>24,88; 42,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 24,54</t>
+          <t>14,57; 24,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,64; 41,89</t>
+          <t>28,93; 41,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 32,07</t>
+          <t>20,59; 31,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 24,89</t>
+          <t>18,44; 24,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,48</t>
+          <t>25,63; 33,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 31,7</t>
+          <t>23,21; 31,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 37,82</t>
+          <t>29,58; 37,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 47,11</t>
+          <t>38,73; 47,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 33,78</t>
+          <t>25,84; 33,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 30,35</t>
+          <t>24,99; 30,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,61; 39,22</t>
+          <t>33,36; 39,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 31,43</t>
+          <t>26,06; 31,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 24,93</t>
+          <t>19,34; 24,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,53; 33,75</t>
+          <t>27,81; 33,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,19; 27,84</t>
+          <t>22,25; 27,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,33; 35,48</t>
+          <t>29,42; 34,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,55; 48,07</t>
+          <t>41,34; 47,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,87; 39,88</t>
+          <t>33,94; 39,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 29,39</t>
+          <t>24,99; 29,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,28; 39,93</t>
+          <t>35,67; 39,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 32,84</t>
+          <t>28,88; 33,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 23,19</t>
+          <t>16,33; 22,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 33,24</t>
+          <t>26,35; 33,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,19</t>
+          <t>20,5; 27,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 32,74</t>
+          <t>25,81; 33,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,67; 48,97</t>
+          <t>42,0; 49,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 38,6</t>
+          <t>31,2; 38,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 27,07</t>
+          <t>22,34; 27,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 40,07</t>
+          <t>34,99; 40,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,32; 32,2</t>
+          <t>27,15; 31,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,3</t>
+          <t>16,43; 21,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 31,09</t>
+          <t>25,08; 31,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,91</t>
+          <t>18,59; 24,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,43; 30,87</t>
+          <t>25,26; 30,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,13; 42,22</t>
+          <t>35,9; 42,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 33,34</t>
+          <t>27,36; 33,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,66; 25,44</t>
+          <t>21,64; 25,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,58; 35,95</t>
+          <t>31,66; 35,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,01; 28,08</t>
+          <t>24,01; 27,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,71</t>
+          <t>18,83; 21,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,75</t>
+          <t>27,65; 30,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,36; 25,43</t>
+          <t>22,25; 25,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,81; 32,01</t>
+          <t>28,74; 31,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,18; 44,5</t>
+          <t>41,09; 44,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,58; 34,86</t>
+          <t>31,76; 35,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 26,51</t>
+          <t>24,32; 26,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 37,3</t>
+          <t>34,98; 37,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,65; 29,89</t>
+          <t>27,51; 29,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 21,7</t>
+          <t>0; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,28; 35,68</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,42; 26,86</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 12,79</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 33,14</t>
+          <t>0; 2,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 53,45</t>
+          <t>0; 2,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,88; 42,27</t>
+          <t>0; 2,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,73</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 24,39</t>
+          <t>0; 1,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 41,91</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 31,89</t>
+          <t>0; 1,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,25</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 24,89</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,26</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,21; 31,15</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,38</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,49</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,73; 47,4</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 33,55</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,0</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,99; 30,28</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,36; 39,31</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 31,1</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,67</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 24,88</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,81; 33,83</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 27,9</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,42; 34,89</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 47,93</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,94; 39,46</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,51; 26,08</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,99; 29,32</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,67; 39,91</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,88; 33,06</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 21,53</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,72</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 33,18</t>
+          <t>0; 0,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 27,0</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,0</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 33,12</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,0; 49,92</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 38,79</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 51,92</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 27,02</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,99; 40,23</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 31,92</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 38,64</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 21,28</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,23</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 24,22</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,23</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,26; 30,9</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,11</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,36; 33,03</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 15,98</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,64; 25,63</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,66; 35,94</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,01; 27,89</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 14,68</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 21,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,65; 30,87</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,32</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 14,73</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,74; 31,91</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,09; 44,64</t>
+          <t>0; 0,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,76; 35,07</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 29,35</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,32; 26,43</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,98; 37,33</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 29,81</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,13</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>31,27; 40,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>41,01; 50,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>39,93; 50,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>6,64; 11,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>42,46; 51,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>54,58; 63,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>41,62; 50,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>8,51; 13,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>38,59; 44,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>49,01; 55,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>42,38; 49,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>8,2; 11,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>33,88; 41,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>45,38; 53,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>41,22; 49,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,08; 11,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>44,57; 52,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>58,72; 66,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>51,11; 58,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>14,89; 19,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>40,72; 46,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>53,64; 59,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>48,23; 53,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,26; 14,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>31,23; 40,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>46,71; 56,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>40,99; 50,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,55; 8,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>39,41; 48,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>62,71; 71,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>50,17; 58,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>10,35; 63,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>36,7; 43,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>56,56; 63,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>47,17; 54,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>8,08; 47,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>33,19; 41,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>46,49; 55,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>36,06; 44,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,81; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>40,64; 48,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>54,39; 61,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>44,22; 52,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,76; 10,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>38,89; 44,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>52,39; 58,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>41,84; 47,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,81; 9,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>34,77; 39,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>47,28; 51,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>42,21; 46,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,85; 8,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>44,09; 48,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>59,67; 63,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>49,18; 53,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>11,45; 31,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>40,25; 43,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>54,48; 57,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>46,66; 49,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>9,41; 20,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,05</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,27; 40,68</t>
+          <t>31,13; 40,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,01; 50,02</t>
+          <t>40,99; 50,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 50,24</t>
+          <t>40,47; 50,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,22</t>
+          <t>6,51; 11,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,46; 51,11</t>
+          <t>42,49; 51,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,58; 63,25</t>
+          <t>54,95; 63,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 50,9</t>
+          <t>41,5; 50,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,3</t>
+          <t>8,33; 13,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,59; 44,94</t>
+          <t>38,66; 44,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,01; 55,66</t>
+          <t>49,2; 56,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,38; 49,19</t>
+          <t>42,5; 49,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 11,51</t>
+          <t>8,06; 11,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,88; 41,89</t>
+          <t>33,43; 41,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,38; 53,2</t>
+          <t>45,41; 53,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,22; 49,88</t>
+          <t>41,52; 49,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,27</t>
+          <t>4,2; 11,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,57; 52,53</t>
+          <t>44,55; 52,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,72; 66,22</t>
+          <t>58,81; 65,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 58,87</t>
+          <t>51,47; 58,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,89; 19,1</t>
+          <t>14,93; 18,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,72; 46,68</t>
+          <t>40,69; 46,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,64; 59,1</t>
+          <t>53,4; 58,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,23; 53,57</t>
+          <t>48,06; 53,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 14,28</t>
+          <t>8,23; 14,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,23; 40,66</t>
+          <t>31,41; 41,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,71; 56,52</t>
+          <t>46,14; 56,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,99; 50,87</t>
+          <t>41,07; 50,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,8</t>
+          <t>4,62; 9,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,41; 48,56</t>
+          <t>39,24; 47,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 71,68</t>
+          <t>62,86; 71,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,17; 58,83</t>
+          <t>50,07; 59,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 63,31</t>
+          <t>10,05; 59,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,7; 43,44</t>
+          <t>37,0; 43,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,56; 63,13</t>
+          <t>56,62; 63,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,17; 54,14</t>
+          <t>47,37; 54,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 47,2</t>
+          <t>8,29; 46,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,19; 41,76</t>
+          <t>33,35; 41,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,49; 55,4</t>
+          <t>46,17; 54,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,06; 44,54</t>
+          <t>36,1; 44,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,12</t>
+          <t>5,83; 9,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,64; 48,33</t>
+          <t>40,76; 48,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,39; 61,91</t>
+          <t>54,8; 62,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,22; 52,26</t>
+          <t>43,99; 52,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,11</t>
+          <t>6,66; 10,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,89; 44,37</t>
+          <t>38,71; 44,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,39; 58,12</t>
+          <t>52,62; 58,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,84; 47,74</t>
+          <t>41,9; 47,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,14</t>
+          <t>6,78; 9,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,77; 39,3</t>
+          <t>34,72; 39,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,28; 51,56</t>
+          <t>47,11; 51,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,21; 46,47</t>
+          <t>41,86; 46,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,88</t>
+          <t>6,1; 8,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,09; 48,17</t>
+          <t>43,93; 47,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,67; 63,54</t>
+          <t>59,71; 63,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,18; 53,38</t>
+          <t>48,92; 53,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 31,24</t>
+          <t>11,42; 32,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,25; 43,36</t>
+          <t>40,34; 43,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,48; 57,5</t>
+          <t>54,38; 57,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,66; 49,84</t>
+          <t>46,46; 49,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 20,38</t>
+          <t>9,46; 21,65</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>152380</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>215576</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>180245</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54926</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>229665</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>303437</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>204748</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78672</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>382046</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>384992</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>133598</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>131725; 172959</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>193670; 237221</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>161072; 202293</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41336; 69996</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>209090; 251441</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>282762; 326671</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>185292; 226500</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60448; 95913</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>353804; 410585</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>485697; 552915</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>358917; 418968</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>109744; 156667</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>221059</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>325474</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>265854</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>316600</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>465821</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>395350</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>537659</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>791295</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>661204</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>261213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>196051; 245398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>300398; 351412</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>241811; 289473</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50134; 135755</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>289667; 342601</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>439255; 491903</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>369075; 422394</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>143150; 180456</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>503204; 573735</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>752135; 827006</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>624455; 699342</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>177066; 303830</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>145656</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>236276</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>190611</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>44333</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>207734</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>357753</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>280589</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>284333</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>353391</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>594029</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>471200</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>328665</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>126720; 167144</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>210975; 256648</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>170914; 209844</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32537; 64158</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>186830; 228326</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>334263; 381412</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>256991; 303268</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>93805; 559972</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>325415; 382543</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>559916; 626522</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>440276; 504640</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>135752; 754224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>186908</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>277916</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>201701</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68083</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>304699</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>423011</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>316287</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93131</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>491606</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>700927</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>517988</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>161214</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>165839; 207465</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>252134; 300236</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>180694; 224502</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54078; 83878</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>278412; 332050</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>396537; 452435</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>289548; 343070</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72873; 111174</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>456836; 523075</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>668092; 737852</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>485520; 549041</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>137037; 184424</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>706004</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1055242</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>838411</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>267516</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1058698</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1550023</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1196973</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>617174</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1764702</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2605265</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2035384</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>884690</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>663183; 748468</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1006826; 1101905</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>794075; 880538</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>211217; 305947</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1010970; 1103813</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1502778; 1597594</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1142237; 1246758</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>423866; 1213729</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1698885; 1829024</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2530825; 2673145</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1966355; 2099250</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>678344; 1552438</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>